--- a/analysis/edcr/out/top_f1/nickel_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/nickel_shift_new_20_results.xlsx
@@ -774,31 +774,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L5">
-        <v>0.5918367346938775</v>
+        <v>0.6</v>
       </c>
       <c r="M5">
-        <v>0.4754098360655737</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="N5">
-        <v>0.5272727272727273</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.008163265306122436</v>
       </c>
       <c r="P5">
-        <v>5.551115123125783E-17</v>
+        <v>0.01639344262295089</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01326781326781323</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01379310344827584</v>
       </c>
       <c r="S5">
-        <v>1.167648353485079E-16</v>
+        <v>0.03448275862068981</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0251630941286113</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -839,31 +839,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L6">
-        <v>0.5918367346938775</v>
+        <v>0.5625</v>
       </c>
       <c r="M6">
-        <v>0.4754098360655737</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N6">
-        <v>0.5272727272727273</v>
+        <v>0.576</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0.02933673469387754</v>
       </c>
       <c r="P6">
-        <v>5.551115123125783E-17</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.04872727272727262</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0.04956896551724137</v>
       </c>
       <c r="S6">
-        <v>1.167648353485079E-16</v>
+        <v>0.2413793103448278</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.09241379310344806</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -1096,31 +1096,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L10">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="M10">
-        <v>0.5409836065573771</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N10">
-        <v>0.5739130434782609</v>
+        <v>0.5950413223140496</v>
       </c>
       <c r="O10">
-        <v>0.01927437641723362</v>
+        <v>0.008163265306122436</v>
       </c>
       <c r="P10">
-        <v>0.06557377049180341</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q10">
-        <v>0.04664031620553355</v>
+        <v>0.06776859504132227</v>
       </c>
       <c r="R10">
-        <v>0.03256704980842922</v>
+        <v>0.01379310344827584</v>
       </c>
       <c r="S10">
-        <v>0.1379310344827589</v>
+        <v>0.2413793103448278</v>
       </c>
       <c r="T10">
-        <v>0.08845577211394293</v>
+        <v>0.128526645768025</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1161,31 +1161,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L11">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
-        <v>0.5409836065573771</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N11">
-        <v>0.5739130434782609</v>
+        <v>0.5950413223140496</v>
       </c>
       <c r="O11">
-        <v>0.01927437641723362</v>
+        <v>0.008163265306122436</v>
       </c>
       <c r="P11">
-        <v>0.06557377049180341</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q11">
-        <v>0.04664031620553355</v>
+        <v>0.06776859504132227</v>
       </c>
       <c r="R11">
-        <v>0.03256704980842922</v>
+        <v>0.01379310344827584</v>
       </c>
       <c r="S11">
-        <v>0.1379310344827589</v>
+        <v>0.2413793103448278</v>
       </c>
       <c r="T11">
-        <v>0.08845577211394293</v>
+        <v>0.128526645768025</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1418,31 +1418,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L15">
-        <v>0.3723404255319149</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="M15">
-        <v>0.5737704918032787</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="N15">
-        <v>0.4516129032258064</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.008190547919412539</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="Q15">
-        <v>5.551115123125783E-17</v>
+        <v>0.04263997033741201</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.02199747155499368</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="T15">
-        <v>1.229175491549281E-16</v>
+        <v>0.09441707717569804</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -1483,31 +1483,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L16">
-        <v>0.3723404255319149</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="M16">
-        <v>0.5737704918032787</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="N16">
-        <v>0.4516129032258064</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.001572617946346</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="Q16">
-        <v>5.551115123125783E-17</v>
+        <v>0.03702346041055726</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.004223602484472114</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="T16">
-        <v>1.229175491549281E-16</v>
+        <v>0.08198051948051967</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1740,31 +1740,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L20">
-        <v>0.3762376237623762</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="M20">
-        <v>0.6229508196721312</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="N20">
-        <v>0.4691358024691358</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="O20">
-        <v>0.003897198230461363</v>
+        <v>0.008190547919412539</v>
       </c>
       <c r="P20">
-        <v>0.04918032786885251</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="Q20">
-        <v>0.01752289924332945</v>
+        <v>0.04263997033741201</v>
       </c>
       <c r="R20">
-        <v>0.01046676096181052</v>
+        <v>0.02199747155499368</v>
       </c>
       <c r="S20">
-        <v>0.08571428571428581</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="T20">
-        <v>0.03880070546737235</v>
+        <v>0.09441707717569804</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1805,31 +1805,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L21">
-        <v>0.3762376237623762</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="M21">
-        <v>0.6229508196721312</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="N21">
-        <v>0.4691358024691358</v>
+        <v>0.502994011976048</v>
       </c>
       <c r="O21">
-        <v>0.003897198230461363</v>
+        <v>0.02388598956242477</v>
       </c>
       <c r="P21">
-        <v>0.04918032786885251</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q21">
-        <v>0.01752289924332945</v>
+        <v>0.0513811087502416</v>
       </c>
       <c r="R21">
-        <v>0.01046676096181052</v>
+        <v>0.06415094339622653</v>
       </c>
       <c r="S21">
-        <v>0.08571428571428581</v>
+        <v>0.2</v>
       </c>
       <c r="T21">
-        <v>0.03880070546737235</v>
+        <v>0.1137724550898207</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -2384,31 +2384,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L30">
-        <v>0.6571428571428571</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M30">
-        <v>0.3770491803278688</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="N30">
-        <v>0.4791666666666666</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02706766917293235</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="Q30">
-        <v>5.551115123125783E-17</v>
+        <v>0.04608585858585873</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.04118993135011445</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T30">
-        <v>1.158493590913207E-16</v>
+        <v>0.0961791831357052</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2449,31 +2449,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L31">
-        <v>0.6571428571428571</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="M31">
-        <v>0.3770491803278688</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="N31">
-        <v>0.4791666666666666</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01853281853281852</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.03278688524590168</v>
       </c>
       <c r="Q31">
-        <v>5.551115123125783E-17</v>
+        <v>0.0310374149659865</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.02820211515863687</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.08695652173913054</v>
       </c>
       <c r="T31">
-        <v>1.158493590913207E-16</v>
+        <v>0.06477373558118922</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2706,31 +2706,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L35">
-        <v>0.4</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="M35">
-        <v>0.5573770491803278</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N35">
-        <v>0.4657534246575343</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="O35">
-        <v>0.15</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="P35">
-        <v>0.540983606557377</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="Q35">
-        <v>0.4349841938883036</v>
+        <v>0.4590266875981162</v>
       </c>
       <c r="R35">
-        <v>0.6000000000000001</v>
+        <v>0.6744186046511629</v>
       </c>
       <c r="S35">
-        <v>33.00000000000004</v>
+        <v>35.00000000000004</v>
       </c>
       <c r="T35">
-        <v>14.1369863013699</v>
+        <v>14.91836734693881</v>
       </c>
       <c r="U35" t="s">
         <v>34</v>
@@ -2771,31 +2771,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L36">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="M36">
-        <v>0.5573770491803278</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="N36">
-        <v>0.4657534246575343</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="O36">
-        <v>0.15</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="P36">
-        <v>0.540983606557377</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="Q36">
-        <v>0.4349841938883036</v>
+        <v>0.4757242757242757</v>
       </c>
       <c r="R36">
-        <v>0.6000000000000001</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="S36">
-        <v>33.00000000000004</v>
+        <v>38.00000000000005</v>
       </c>
       <c r="T36">
-        <v>14.1369863013699</v>
+        <v>15.46103896103899</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>

--- a/analysis/edcr/out/top_f1/nickel_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/nickel_shift_new_20_results.xlsx
@@ -555,7 +555,7 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>0.5918367346938775</v>
@@ -579,31 +579,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L2">
-        <v>0.5625</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="M2">
-        <v>0.5901639344262295</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="N2">
-        <v>0.576</v>
+        <v>0.5535714285714285</v>
       </c>
       <c r="O2">
-        <v>-0.02933673469387754</v>
+        <v>0.01600640256102437</v>
       </c>
       <c r="P2">
-        <v>0.1147540983606558</v>
+        <v>0.03278688524590173</v>
       </c>
       <c r="Q2">
-        <v>0.04872727272727262</v>
+        <v>0.02629870129870115</v>
       </c>
       <c r="R2">
-        <v>-0.04956896551724137</v>
+        <v>0.02704530087897221</v>
       </c>
       <c r="S2">
-        <v>0.2413793103448278</v>
+        <v>0.06896551724137952</v>
       </c>
       <c r="T2">
-        <v>0.09241379310344806</v>
+        <v>0.04987684729064012</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -620,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>0.5918367346938775</v>
@@ -644,31 +644,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L3">
-        <v>0.5625</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="M3">
-        <v>0.5901639344262295</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="N3">
-        <v>0.576</v>
+        <v>0.5535714285714285</v>
       </c>
       <c r="O3">
-        <v>-0.02933673469387754</v>
+        <v>0.01600640256102437</v>
       </c>
       <c r="P3">
-        <v>0.1147540983606558</v>
+        <v>0.03278688524590173</v>
       </c>
       <c r="Q3">
-        <v>0.04872727272727262</v>
+        <v>0.02629870129870115</v>
       </c>
       <c r="R3">
-        <v>-0.04956896551724137</v>
+        <v>0.02704530087897221</v>
       </c>
       <c r="S3">
-        <v>0.2413793103448278</v>
+        <v>0.06896551724137952</v>
       </c>
       <c r="T3">
-        <v>0.09241379310344806</v>
+        <v>0.04987684729064012</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -685,7 +685,7 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>0.5918367346938775</v>
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>0.5918367346938775</v>
@@ -774,31 +774,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L5">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="M5">
         <v>0.4918032786885246</v>
       </c>
       <c r="N5">
-        <v>0.5405405405405406</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="O5">
-        <v>0.008163265306122436</v>
+        <v>-0.01491365777080067</v>
       </c>
       <c r="P5">
         <v>0.01639344262295089</v>
       </c>
       <c r="Q5">
-        <v>0.01326781326781323</v>
+        <v>0.003700724054706339</v>
       </c>
       <c r="R5">
-        <v>0.01379310344827584</v>
+        <v>-0.02519893899204251</v>
       </c>
       <c r="S5">
         <v>0.03448275862068981</v>
       </c>
       <c r="T5">
-        <v>0.0251630941286113</v>
+        <v>0.007018614586512022</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>0.5918367346938775</v>
@@ -839,31 +839,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L6">
-        <v>0.5625</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="M6">
-        <v>0.5901639344262295</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="N6">
-        <v>0.576</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="O6">
-        <v>-0.02933673469387754</v>
+        <v>-0.01491365777080067</v>
       </c>
       <c r="P6">
-        <v>0.1147540983606558</v>
+        <v>0.01639344262295089</v>
       </c>
       <c r="Q6">
-        <v>0.04872727272727262</v>
+        <v>0.003700724054706339</v>
       </c>
       <c r="R6">
-        <v>-0.04956896551724137</v>
+        <v>-0.02519893899204251</v>
       </c>
       <c r="S6">
-        <v>0.2413793103448278</v>
+        <v>0.03448275862068981</v>
       </c>
       <c r="T6">
-        <v>0.09241379310344806</v>
+        <v>0.007018614586512022</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>0.5918367346938775</v>
@@ -901,31 +901,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L7">
-        <v>0.6</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="M7">
-        <v>0.5901639344262295</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="N7">
-        <v>0.5950413223140496</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="O7">
-        <v>0.008163265306122436</v>
+        <v>0.01161154116819141</v>
       </c>
       <c r="P7">
-        <v>0.1147540983606558</v>
+        <v>0.09836065573770497</v>
       </c>
       <c r="Q7">
-        <v>0.06776859504132227</v>
+        <v>0.06096256684491963</v>
       </c>
       <c r="R7">
-        <v>0.01379310344827584</v>
+        <v>0.01961950059453031</v>
       </c>
       <c r="S7">
-        <v>0.2413793103448278</v>
+        <v>0.2068965517241381</v>
       </c>
       <c r="T7">
-        <v>0.128526645768025</v>
+        <v>0.1156186612576062</v>
       </c>
       <c r="U7" t="s">
         <v>31</v>
@@ -942,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>0.5918367346938775</v>
@@ -966,31 +966,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L8">
-        <v>0.603448275862069</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="M8">
-        <v>0.5737704918032787</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="N8">
-        <v>0.588235294117647</v>
+        <v>0.5811965811965811</v>
       </c>
       <c r="O8">
-        <v>0.01161154116819141</v>
+        <v>0.01530612244897955</v>
       </c>
       <c r="P8">
-        <v>0.09836065573770497</v>
+        <v>0.08196721311475413</v>
       </c>
       <c r="Q8">
-        <v>0.06096256684491963</v>
+        <v>0.05392385392385379</v>
       </c>
       <c r="R8">
-        <v>0.01961950059453031</v>
+        <v>0.02586206896551718</v>
       </c>
       <c r="S8">
-        <v>0.2068965517241381</v>
+        <v>0.1724137931034484</v>
       </c>
       <c r="T8">
-        <v>0.1156186612576062</v>
+        <v>0.1022693781314468</v>
       </c>
       <c r="U8" t="s">
         <v>31</v>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0.5918367346938775</v>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0.5918367346938775</v>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0.5918367346938775</v>
@@ -1161,31 +1161,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="M11">
-        <v>0.5901639344262295</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="N11">
-        <v>0.5950413223140496</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="O11">
-        <v>0.008163265306122436</v>
+        <v>0.01161154116819141</v>
       </c>
       <c r="P11">
-        <v>0.1147540983606558</v>
+        <v>0.09836065573770497</v>
       </c>
       <c r="Q11">
-        <v>0.06776859504132227</v>
+        <v>0.06096256684491963</v>
       </c>
       <c r="R11">
-        <v>0.01379310344827584</v>
+        <v>0.01961950059453031</v>
       </c>
       <c r="S11">
-        <v>0.2413793103448278</v>
+        <v>0.2068965517241381</v>
       </c>
       <c r="T11">
-        <v>0.128526645768025</v>
+        <v>0.1156186612576062</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1199,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>0.3723404255319149</v>
@@ -1223,31 +1223,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L12">
-        <v>0.3739130434782609</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="M12">
-        <v>0.7049180327868853</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="N12">
-        <v>0.4886363636363636</v>
+        <v>0.4943820224719102</v>
       </c>
       <c r="O12">
-        <v>0.001572617946346</v>
+        <v>0.003727950536461189</v>
       </c>
       <c r="P12">
-        <v>0.1311475409836066</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q12">
-        <v>0.03702346041055726</v>
+        <v>0.04276911924610377</v>
       </c>
       <c r="R12">
-        <v>0.004223602484472114</v>
+        <v>0.01001221001221005</v>
       </c>
       <c r="S12">
-        <v>0.2285714285714286</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="T12">
-        <v>0.08198051948051967</v>
+        <v>0.09470304975922979</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1264,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>0.3723404255319149</v>
@@ -1288,31 +1288,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L13">
-        <v>0.3739130434782609</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="M13">
-        <v>0.7049180327868853</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="N13">
-        <v>0.4886363636363636</v>
+        <v>0.4943820224719102</v>
       </c>
       <c r="O13">
-        <v>0.001572617946346</v>
+        <v>0.003727950536461189</v>
       </c>
       <c r="P13">
-        <v>0.1311475409836066</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q13">
-        <v>0.03702346041055726</v>
+        <v>0.04276911924610377</v>
       </c>
       <c r="R13">
-        <v>0.004223602484472114</v>
+        <v>0.01001221001221005</v>
       </c>
       <c r="S13">
-        <v>0.2285714285714286</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="T13">
-        <v>0.08198051948051967</v>
+        <v>0.09470304975922979</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>0.3723404255319149</v>
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>0.3723404255319149</v>
@@ -1459,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>0.3723404255319149</v>
@@ -1483,31 +1483,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L16">
-        <v>0.3739130434782609</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="M16">
-        <v>0.7049180327868853</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="N16">
-        <v>0.4886363636363636</v>
+        <v>0.4943820224719102</v>
       </c>
       <c r="O16">
-        <v>0.001572617946346</v>
+        <v>0.003727950536461189</v>
       </c>
       <c r="P16">
-        <v>0.1311475409836066</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q16">
-        <v>0.03702346041055726</v>
+        <v>0.04276911924610377</v>
       </c>
       <c r="R16">
-        <v>0.004223602484472114</v>
+        <v>0.01001221001221005</v>
       </c>
       <c r="S16">
-        <v>0.2285714285714286</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="T16">
-        <v>0.08198051948051967</v>
+        <v>0.09470304975922979</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1521,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>0.3723404255319149</v>
@@ -1545,31 +1545,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L17">
-        <v>0.3962264150943396</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="M17">
-        <v>0.6885245901639344</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="N17">
-        <v>0.502994011976048</v>
+        <v>0.4971751412429378</v>
       </c>
       <c r="O17">
-        <v>0.02388598956242477</v>
+        <v>0.006969919295671312</v>
       </c>
       <c r="P17">
-        <v>0.1147540983606558</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q17">
-        <v>0.0513811087502416</v>
+        <v>0.04556223801713144</v>
       </c>
       <c r="R17">
-        <v>0.06415094339622653</v>
+        <v>0.0187192118226601</v>
       </c>
       <c r="S17">
-        <v>0.2</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="T17">
-        <v>0.1137724550898207</v>
+        <v>0.1008878127522196</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>0.3723404255319149</v>
@@ -1610,31 +1610,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L18">
-        <v>0.3962264150943396</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="M18">
-        <v>0.6885245901639344</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="N18">
-        <v>0.502994011976048</v>
+        <v>0.4971751412429378</v>
       </c>
       <c r="O18">
-        <v>0.02388598956242477</v>
+        <v>0.006969919295671312</v>
       </c>
       <c r="P18">
-        <v>0.1147540983606558</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q18">
-        <v>0.0513811087502416</v>
+        <v>0.04556223801713144</v>
       </c>
       <c r="R18">
-        <v>0.06415094339622653</v>
+        <v>0.0187192118226601</v>
       </c>
       <c r="S18">
-        <v>0.2</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="T18">
-        <v>0.1137724550898207</v>
+        <v>0.1008878127522196</v>
       </c>
       <c r="U18" t="s">
         <v>32</v>
@@ -1651,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>0.3723404255319149</v>
@@ -1716,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>0.3723404255319149</v>
@@ -1740,31 +1740,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L20">
-        <v>0.3805309734513274</v>
+        <v>0.3771929824561404</v>
       </c>
       <c r="M20">
         <v>0.7049180327868853</v>
       </c>
       <c r="N20">
-        <v>0.4942528735632184</v>
+        <v>0.4914285714285714</v>
       </c>
       <c r="O20">
-        <v>0.008190547919412539</v>
+        <v>0.004852556924225482</v>
       </c>
       <c r="P20">
         <v>0.1311475409836066</v>
       </c>
       <c r="Q20">
-        <v>0.04263997033741201</v>
+        <v>0.03981566820276505</v>
       </c>
       <c r="R20">
-        <v>0.02199747155499368</v>
+        <v>0.01303258145363415</v>
       </c>
       <c r="S20">
         <v>0.2285714285714286</v>
       </c>
       <c r="T20">
-        <v>0.09441707717569804</v>
+        <v>0.08816326530612263</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1781,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>0.3723404255319149</v>
@@ -1805,31 +1805,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L21">
-        <v>0.3962264150943396</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="M21">
-        <v>0.6885245901639344</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="N21">
-        <v>0.502994011976048</v>
+        <v>0.4971751412429378</v>
       </c>
       <c r="O21">
-        <v>0.02388598956242477</v>
+        <v>0.006969919295671312</v>
       </c>
       <c r="P21">
-        <v>0.1147540983606558</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q21">
-        <v>0.0513811087502416</v>
+        <v>0.04556223801713144</v>
       </c>
       <c r="R21">
-        <v>0.06415094339622653</v>
+        <v>0.0187192118226601</v>
       </c>
       <c r="S21">
-        <v>0.2</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="T21">
-        <v>0.1137724550898207</v>
+        <v>0.1008878127522196</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -1843,7 +1843,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>0.6571428571428571</v>
@@ -1867,31 +1867,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L22">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.3770491803278688</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="N22">
-        <v>0.4791666666666666</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.00952380952380949</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q22">
-        <v>5.551115123125783E-17</v>
+        <v>0.08687106918239001</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.01449275362318835</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.3043478260869566</v>
       </c>
       <c r="T22">
-        <v>1.158493590913207E-16</v>
+        <v>0.1812961443806401</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>0.6571428571428571</v>
@@ -1932,31 +1932,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L23">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.3770491803278688</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="N23">
-        <v>0.4791666666666666</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.00952380952380949</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q23">
-        <v>5.551115123125783E-17</v>
+        <v>0.08687106918239001</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.01449275362318835</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>0.3043478260869566</v>
       </c>
       <c r="T23">
-        <v>1.158493590913207E-16</v>
+        <v>0.1812961443806401</v>
       </c>
       <c r="U23" t="s">
         <v>33</v>
@@ -1973,7 +1973,7 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>0.6571428571428571</v>
@@ -2038,7 +2038,7 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>0.6571428571428571</v>
@@ -2062,31 +2062,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L25">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3770491803278688</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="N25">
-        <v>0.4791666666666666</v>
+        <v>0.5436893203883496</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.00952380952380949</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.08196721311475413</v>
       </c>
       <c r="Q25">
-        <v>5.551115123125783E-17</v>
+        <v>0.06452265372168303</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.01449275362318835</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="T25">
-        <v>1.158493590913207E-16</v>
+        <v>0.134655972984382</v>
       </c>
       <c r="U25" t="s">
         <v>33</v>
@@ -2103,7 +2103,7 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>0.6571428571428571</v>
@@ -2127,31 +2127,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L26">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3770491803278688</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="N26">
-        <v>0.4791666666666666</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.00952380952380949</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q26">
-        <v>5.551115123125783E-17</v>
+        <v>0.08687106918239001</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.01449275362318835</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.3043478260869566</v>
       </c>
       <c r="T26">
-        <v>1.158493590913207E-16</v>
+        <v>0.1812961443806401</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2165,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>0.6571428571428571</v>
@@ -2189,31 +2189,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L27">
-        <v>0.6756756756756757</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="M27">
-        <v>0.4098360655737705</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="N27">
-        <v>0.5102040816326531</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O27">
-        <v>0.01853281853281852</v>
+        <v>0.001393728222996549</v>
       </c>
       <c r="P27">
-        <v>0.03278688524590168</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="Q27">
-        <v>0.0310374149659865</v>
+        <v>0.05024509803921579</v>
       </c>
       <c r="R27">
-        <v>0.02820211515863687</v>
+        <v>0.002120890774125183</v>
       </c>
       <c r="S27">
-        <v>0.08695652173913054</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="T27">
-        <v>0.06477373558118922</v>
+        <v>0.1048593350383634</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -2230,7 +2230,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>0.6571428571428571</v>
@@ -2254,31 +2254,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L28">
-        <v>0.6842105263157895</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="M28">
-        <v>0.4262295081967213</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="N28">
-        <v>0.5252525252525253</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O28">
-        <v>0.02706766917293235</v>
+        <v>0.001393728222996549</v>
       </c>
       <c r="P28">
-        <v>0.04918032786885246</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="Q28">
-        <v>0.04608585858585873</v>
+        <v>0.05024509803921579</v>
       </c>
       <c r="R28">
-        <v>0.04118993135011445</v>
+        <v>0.002120890774125183</v>
       </c>
       <c r="S28">
-        <v>0.1304347826086956</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="T28">
-        <v>0.0961791831357052</v>
+        <v>0.1048593350383634</v>
       </c>
       <c r="U28" t="s">
         <v>33</v>
@@ -2295,7 +2295,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>0.6571428571428571</v>
@@ -2360,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E30">
         <v>0.6571428571428571</v>
@@ -2384,31 +2384,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L30">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
         <v>0.4262295081967213</v>
       </c>
       <c r="N30">
-        <v>0.5252525252525253</v>
+        <v>0.52</v>
       </c>
       <c r="O30">
-        <v>0.02706766917293235</v>
+        <v>0.00952380952380949</v>
       </c>
       <c r="P30">
         <v>0.04918032786885246</v>
       </c>
       <c r="Q30">
-        <v>0.04608585858585873</v>
+        <v>0.04083333333333344</v>
       </c>
       <c r="R30">
-        <v>0.04118993135011445</v>
+        <v>0.01449275362318835</v>
       </c>
       <c r="S30">
         <v>0.1304347826086956</v>
       </c>
       <c r="T30">
-        <v>0.0961791831357052</v>
+        <v>0.08521739130434808</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>0.6571428571428571</v>
@@ -2449,31 +2449,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L31">
-        <v>0.6756756756756757</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="M31">
-        <v>0.4098360655737705</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="N31">
-        <v>0.5102040816326531</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="O31">
-        <v>0.01853281853281852</v>
+        <v>0.001393728222996549</v>
       </c>
       <c r="P31">
-        <v>0.03278688524590168</v>
+        <v>0.0655737704918033</v>
       </c>
       <c r="Q31">
-        <v>0.0310374149659865</v>
+        <v>0.05024509803921579</v>
       </c>
       <c r="R31">
-        <v>0.02820211515863687</v>
+        <v>0.002120890774125183</v>
       </c>
       <c r="S31">
-        <v>0.08695652173913054</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="T31">
-        <v>0.06477373558118922</v>
+        <v>0.1048593350383634</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2487,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E32">
         <v>0.25</v>
@@ -2511,31 +2511,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L32">
-        <v>0.4193548387096774</v>
+        <v>0.3</v>
       </c>
       <c r="M32">
-        <v>0.639344262295082</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="N32">
-        <v>0.5064935064935064</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="O32">
-        <v>0.1693548387096774</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="P32">
-        <v>0.6229508196721312</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="Q32">
-        <v>0.4757242757242757</v>
+        <v>0.4107892107892108</v>
       </c>
       <c r="R32">
-        <v>0.6774193548387097</v>
+        <v>0.2</v>
       </c>
       <c r="S32">
-        <v>38.00000000000005</v>
+        <v>50.00000000000006</v>
       </c>
       <c r="T32">
-        <v>15.46103896103899</v>
+        <v>13.35064935064938</v>
       </c>
       <c r="U32" t="s">
         <v>34</v>
@@ -2552,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E33">
         <v>0.25</v>
@@ -2576,31 +2576,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L33">
-        <v>0.3644067796610169</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="M33">
-        <v>0.7049180327868853</v>
+        <v>0.8852459016393442</v>
       </c>
       <c r="N33">
-        <v>0.4804469273743016</v>
+        <v>0.3985239852398523</v>
       </c>
       <c r="O33">
-        <v>0.1144067796610169</v>
+        <v>0.007142857142857117</v>
       </c>
       <c r="P33">
-        <v>0.6885245901639344</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="Q33">
-        <v>0.4496776966050709</v>
+        <v>0.3677547544706216</v>
       </c>
       <c r="R33">
-        <v>0.4576271186440677</v>
+        <v>0.02857142857142847</v>
       </c>
       <c r="S33">
-        <v>42.00000000000005</v>
+        <v>53.00000000000006</v>
       </c>
       <c r="T33">
-        <v>14.61452513966484</v>
+        <v>11.95202952029523</v>
       </c>
       <c r="U33" t="s">
         <v>34</v>
@@ -2617,7 +2617,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E34">
         <v>0.25</v>
@@ -2641,31 +2641,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L34">
-        <v>0.4</v>
+        <v>0.2732558139534884</v>
       </c>
       <c r="M34">
-        <v>0.5573770491803278</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="N34">
-        <v>0.4657534246575343</v>
+        <v>0.4034334763948497</v>
       </c>
       <c r="O34">
-        <v>0.15</v>
+        <v>0.02325581395348836</v>
       </c>
       <c r="P34">
-        <v>0.540983606557377</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="Q34">
-        <v>0.4349841938883036</v>
+        <v>0.372664245625619</v>
       </c>
       <c r="R34">
-        <v>0.6000000000000001</v>
+        <v>0.09302325581395343</v>
       </c>
       <c r="S34">
-        <v>33.00000000000004</v>
+        <v>46.00000000000005</v>
       </c>
       <c r="T34">
-        <v>14.1369863013699</v>
+        <v>12.11158798283264</v>
       </c>
       <c r="U34" t="s">
         <v>34</v>
@@ -2682,7 +2682,7 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <v>0.25</v>
@@ -2706,31 +2706,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L35">
-        <v>0.4186046511627907</v>
+        <v>0.3125</v>
       </c>
       <c r="M35">
-        <v>0.5901639344262295</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="N35">
-        <v>0.4897959183673469</v>
+        <v>0.4524886877828055</v>
       </c>
       <c r="O35">
-        <v>0.1686046511627907</v>
+        <v>0.0625</v>
       </c>
       <c r="P35">
-        <v>0.5737704918032787</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="Q35">
-        <v>0.4590266875981162</v>
+        <v>0.4217194570135748</v>
       </c>
       <c r="R35">
-        <v>0.6744186046511629</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>35.00000000000004</v>
+        <v>49.00000000000006</v>
       </c>
       <c r="T35">
-        <v>14.91836734693881</v>
+        <v>13.70588235294121</v>
       </c>
       <c r="U35" t="s">
         <v>34</v>
@@ -2747,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E36">
         <v>0.25</v>
@@ -2771,31 +2771,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L36">
-        <v>0.4193548387096774</v>
+        <v>0.3</v>
       </c>
       <c r="M36">
-        <v>0.639344262295082</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="N36">
-        <v>0.5064935064935064</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="O36">
-        <v>0.1693548387096774</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="P36">
-        <v>0.6229508196721312</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="Q36">
-        <v>0.4757242757242757</v>
+        <v>0.4107892107892108</v>
       </c>
       <c r="R36">
-        <v>0.6774193548387097</v>
+        <v>0.2</v>
       </c>
       <c r="S36">
-        <v>38.00000000000005</v>
+        <v>50.00000000000006</v>
       </c>
       <c r="T36">
-        <v>15.46103896103899</v>
+        <v>13.35064935064938</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>
@@ -2809,7 +2809,7 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>0.25</v>
@@ -2833,31 +2833,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L37">
-        <v>0.4123711340206185</v>
+        <v>0.3309859154929577</v>
       </c>
       <c r="M37">
-        <v>0.6557377049180327</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="N37">
-        <v>0.5063291139240507</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="O37">
-        <v>0.1623711340206185</v>
+        <v>0.08098591549295775</v>
       </c>
       <c r="P37">
-        <v>0.6393442622950819</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="Q37">
-        <v>0.47555988315482</v>
+        <v>0.4322849564228875</v>
       </c>
       <c r="R37">
-        <v>0.6494845360824741</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="S37">
-        <v>39.00000000000004</v>
+        <v>46.00000000000005</v>
       </c>
       <c r="T37">
-        <v>15.45569620253168</v>
+        <v>14.04926108374388</v>
       </c>
       <c r="U37" t="s">
         <v>34</v>
@@ -2874,7 +2874,7 @@
         <v>30</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E38">
         <v>0.25</v>
@@ -2898,31 +2898,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L38">
-        <v>0.2692307692307692</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="M38">
-        <v>0.459016393442623</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="N38">
-        <v>0.3393939393939394</v>
+        <v>0.3425414364640884</v>
       </c>
       <c r="O38">
-        <v>0.01923076923076922</v>
+        <v>0.008333333333333359</v>
       </c>
       <c r="P38">
-        <v>0.4426229508196722</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="Q38">
-        <v>0.3086247086247087</v>
+        <v>0.3117722056948577</v>
       </c>
       <c r="R38">
-        <v>0.07692307692307687</v>
+        <v>0.03333333333333344</v>
       </c>
       <c r="S38">
-        <v>27.00000000000004</v>
+        <v>30.00000000000004</v>
       </c>
       <c r="T38">
-        <v>10.03030303030305</v>
+        <v>10.1325966850829</v>
       </c>
       <c r="U38" t="s">
         <v>34</v>
@@ -2939,7 +2939,7 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>0.25</v>
@@ -2963,31 +2963,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L39">
-        <v>0.4123711340206185</v>
+        <v>0.3309859154929577</v>
       </c>
       <c r="M39">
-        <v>0.6557377049180327</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="N39">
-        <v>0.5063291139240507</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="O39">
-        <v>0.1623711340206185</v>
+        <v>0.08098591549295775</v>
       </c>
       <c r="P39">
-        <v>0.6393442622950819</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="Q39">
-        <v>0.47555988315482</v>
+        <v>0.4322849564228875</v>
       </c>
       <c r="R39">
-        <v>0.6494845360824741</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="S39">
-        <v>39.00000000000004</v>
+        <v>46.00000000000005</v>
       </c>
       <c r="T39">
-        <v>15.45569620253168</v>
+        <v>14.04926108374388</v>
       </c>
       <c r="U39" t="s">
         <v>34</v>
@@ -3004,7 +3004,7 @@
         <v>30</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E40">
         <v>0.25</v>
@@ -3028,31 +3028,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L40">
-        <v>0.4123711340206185</v>
+        <v>0.3309859154929577</v>
       </c>
       <c r="M40">
-        <v>0.6557377049180327</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="N40">
-        <v>0.5063291139240507</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="O40">
-        <v>0.1623711340206185</v>
+        <v>0.08098591549295775</v>
       </c>
       <c r="P40">
-        <v>0.6393442622950819</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="Q40">
-        <v>0.47555988315482</v>
+        <v>0.4322849564228875</v>
       </c>
       <c r="R40">
-        <v>0.6494845360824741</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="S40">
-        <v>39.00000000000004</v>
+        <v>46.00000000000005</v>
       </c>
       <c r="T40">
-        <v>15.45569620253168</v>
+        <v>14.04926108374388</v>
       </c>
       <c r="U40" t="s">
         <v>34</v>
@@ -3069,7 +3069,7 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>0.25</v>
@@ -3093,31 +3093,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L41">
-        <v>0.4123711340206185</v>
+        <v>0.3309859154929577</v>
       </c>
       <c r="M41">
-        <v>0.6557377049180327</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="N41">
-        <v>0.5063291139240507</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="O41">
-        <v>0.1623711340206185</v>
+        <v>0.08098591549295775</v>
       </c>
       <c r="P41">
-        <v>0.6393442622950819</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="Q41">
-        <v>0.47555988315482</v>
+        <v>0.4322849564228875</v>
       </c>
       <c r="R41">
-        <v>0.6494845360824741</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="S41">
-        <v>39.00000000000004</v>
+        <v>46.00000000000005</v>
       </c>
       <c r="T41">
-        <v>15.45569620253168</v>
+        <v>14.04926108374388</v>
       </c>
       <c r="U41" t="s">
         <v>34</v>
